--- a/Week 48/vishnu.xlsx
+++ b/Week 48/vishnu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milestone Toolkit\vishnu\Weekly Report\DEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\Week 48\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>Split Database</t>
   </si>
   <si>
-    <t>update BMR report print object</t>
-  </si>
-  <si>
     <t>HOLD</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>24/11/2018</t>
+  </si>
+  <si>
+    <t>delete unused products from itemmaster</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -728,7 +727,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -810,7 +808,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1013,7 +1010,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1095,7 +1091,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1225,7 +1220,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3356,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3366,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -3399,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="13">
         <v>14</v>
@@ -3408,7 +3402,7 @@
     </row>
     <row r="4" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -3429,13 +3423,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13">
         <v>4</v>
@@ -3443,7 +3437,7 @@
     </row>
     <row r="8" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -3464,10 +3458,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>3</v>
@@ -3484,7 +3478,7 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12"/>
     </row>
@@ -3507,8 +3501,8 @@
       <c r="A14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>13</v>
+      <c r="B14" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>3</v>
@@ -3520,7 +3514,7 @@
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
@@ -3561,10 +3555,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>3</v>
@@ -3575,10 +3569,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>3</v>
@@ -3590,7 +3584,7 @@
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="27"/>
     </row>
@@ -3610,13 +3604,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>25</v>
-      </c>
       <c r="C21" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="13">
         <v>1.31</v>
@@ -3675,7 +3669,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3">
         <v>13.31</v>
@@ -3687,7 +3681,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -3699,7 +3693,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3">
         <v>0.31</v>
@@ -3710,7 +3704,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>1.31</v>
